--- a/ppp-data-dictionary.xlsx
+++ b/ppp-data-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimitsharma/Desktop/NYCDSA/R/R_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86FFFF-B5B5-E743-93CD-F4C14B9BD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794636DF-CD7E-6544-8D83-D582286ED82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{B3E6CDFA-0DAE-46C7-ADEA-1E35C19B6803}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>UTILITIES_PROCEED</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Low-to-Moderate Income</t>
+  </si>
+  <si>
+    <t>The HUBZone program fuels small business growth in historically underutilized business zones with a goal of awarding at least 3% of federal contract dollars to HUBZone-certified companies each year.</t>
   </si>
 </sst>
 </file>
@@ -429,11 +432,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,14 +753,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2331749F-B552-4C82-BE83-FE3F9B17F32E}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,6 +971,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -975,7 +982,7 @@
       <c r="B27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1063,7 +1070,7 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1071,43 +1078,43 @@
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
     </row>
